--- a/mortgage.xlsx
+++ b/mortgage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -53,6 +53,21 @@
   </si>
   <si>
     <t>x3</t>
+  </si>
+  <si>
+    <t>principle</t>
+  </si>
+  <si>
+    <t>real interest rate</t>
+  </si>
+  <si>
+    <t>number of compounding periods per year</t>
+  </si>
+  <si>
+    <t>number of years</t>
+  </si>
+  <si>
+    <t>number of payments</t>
   </si>
 </sst>
 </file>
@@ -60,9 +75,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -138,14 +153,14 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -453,633 +468,649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1">
         <v>300000</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
         <v>0.04</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <f>B1</f>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
+        <f>C1</f>
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
         <v>12</v>
       </c>
-      <c r="D3">
-        <f>D2+1</f>
+      <c r="E3">
+        <f>E2+1</f>
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <f>H2</f>
+      <c r="F3" s="1">
+        <f>I2</f>
         <v>300000</v>
       </c>
-      <c r="F3" s="1">
-        <f>E3*($B$2/$B$3)</f>
+      <c r="G3" s="1">
+        <f>F3*($C$2/$C$3)</f>
         <v>1000.0000000000001</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G20" si="0">$B$9</f>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H3" s="1">
-        <f>E3+F3-G3</f>
+        <f t="shared" ref="H3:H20" si="0">$C$9</f>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I3" s="1">
+        <f>F3+G3-H3</f>
         <v>287972.52334876813</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D8" si="1">D3+1</f>
+      <c r="E4">
+        <f t="shared" ref="E4:E8" si="1">E3+1</f>
         <v>2</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E8" si="2">H3</f>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F8" si="2">I3</f>
         <v>287972.52334876813</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F26" si="3">E4*($B$2/$B$3)</f>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G26" si="3">F4*($C$2/$C$3)</f>
         <v>959.90841116256047</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H8" si="4">E4+F4-G4</f>
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I8" si="4">F4+G4-H4</f>
         <v>275904.95510869881</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <f>B3*B4</f>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <f>C3*C4</f>
         <v>24</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <f t="shared" si="2"/>
         <v>275904.95510869881</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="3"/>
         <v>919.68318369566271</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="4"/>
         <v>263797.16164116259</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <f>B1*B2/B3</f>
+      <c r="C6">
+        <f>C1*C2/C3</f>
         <v>1000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <f t="shared" si="2"/>
         <v>263797.16164116259</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>879.3238721372087</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>251649.00886206795</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <f>(1+B2/B3)^B5</f>
+      <c r="C7">
+        <f>(1+C2/C3)^C5</f>
         <v>1.0831429591590667</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <f t="shared" si="2"/>
         <v>251649.00886206795</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>838.83002954022652</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>239460.3622403763</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <f>B7-1</f>
+      <c r="C8">
+        <f>C7-1</f>
         <v>8.3142959159066665E-2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <f t="shared" si="2"/>
         <v>239460.3622403763</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>798.20120746792111</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>227231.08679661233</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <f>B6*B7/B8</f>
-        <v>13027.47665123188</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9:D20" si="5">D8+1</f>
+      <c r="C9" s="2">
+        <f>C6*C7/C8</f>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E20" si="5">E8+1</f>
         <v>7</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" ref="E9:E20" si="6">H8</f>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9:F20" si="6">I8</f>
         <v>227231.08679661233</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>757.43695598870784</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H9" s="1">
-        <f t="shared" ref="H9:H20" si="7">E9+F9-G9</f>
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" ref="I9:I20" si="7">F9+G9-H9</f>
         <v>214961.04710136916</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E10">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <f t="shared" si="6"/>
         <v>214961.04710136916</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>716.53682367123054</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" si="7"/>
         <v>202650.10727380851</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E11">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <f t="shared" si="6"/>
         <v>202650.10727380851</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="3"/>
         <v>675.50035757936178</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="7"/>
         <v>190298.13098015598</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E12">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <f t="shared" si="6"/>
         <v>190298.13098015598</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <f t="shared" si="3"/>
         <v>634.32710326718666</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" si="7"/>
         <v>177904.9814321913</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E13">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="6"/>
         <v>177904.9814321913</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <f t="shared" si="3"/>
         <v>593.01660477397104</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" si="7"/>
         <v>165470.52138573339</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <f t="shared" si="6"/>
         <v>165470.52138573339</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <f t="shared" si="3"/>
         <v>551.56840461911133</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" si="7"/>
         <v>152994.61313912063</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E15">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <f t="shared" si="6"/>
         <v>152994.61313912063</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <f t="shared" si="3"/>
         <v>509.9820437970688</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I15" s="1">
         <f t="shared" si="7"/>
         <v>140477.11853168582</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E16">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <f t="shared" si="6"/>
         <v>140477.11853168582</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <f t="shared" si="3"/>
         <v>468.25706177228608</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" si="7"/>
         <v>127917.89894222622</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E17">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <f t="shared" si="6"/>
         <v>127917.89894222622</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <f t="shared" si="3"/>
         <v>426.39299647408745</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I17" s="1">
         <f t="shared" si="7"/>
         <v>115316.81528746843</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D18">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E18">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <f t="shared" si="6"/>
         <v>115316.81528746843</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <f t="shared" si="3"/>
         <v>384.38938429156144</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I18" s="1">
         <f t="shared" si="7"/>
         <v>102673.72802052811</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D19">
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E19">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <f t="shared" si="6"/>
         <v>102673.72802052811</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <f t="shared" si="3"/>
         <v>342.24576006842705</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I19" s="1">
         <f t="shared" si="7"/>
         <v>89988.497129364667</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D20">
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E20">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <f t="shared" si="6"/>
         <v>89988.497129364667</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <f t="shared" si="3"/>
         <v>299.96165709788227</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I20" s="1">
         <f t="shared" si="7"/>
         <v>77260.982135230675</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D21">
-        <f t="shared" ref="D21:D26" si="8">D20+1</f>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f t="shared" ref="E21:E26" si="8">E20+1</f>
         <v>19</v>
       </c>
-      <c r="E21" s="1">
-        <f t="shared" ref="E21:E26" si="9">H20</f>
+      <c r="F21" s="1">
+        <f t="shared" ref="F21:F26" si="9">I20</f>
         <v>77260.982135230675</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <f t="shared" si="3"/>
         <v>257.53660711743561</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" ref="G21:G25" si="10">$B$9</f>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H26" si="11">E21+F21-G21</f>
+        <f t="shared" ref="H21:H25" si="10">$C$9</f>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" ref="I21:I26" si="11">F21+G21-H21</f>
         <v>64491.042091116229</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D22">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E22">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <f t="shared" si="9"/>
         <v>64491.042091116229</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <f t="shared" si="3"/>
         <v>214.97014030372077</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <f t="shared" si="10"/>
         <v>13027.47665123188</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <f t="shared" si="11"/>
         <v>51678.535580188065</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D23">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E23">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <f t="shared" si="9"/>
         <v>51678.535580188065</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <f t="shared" si="3"/>
         <v>172.26178526729356</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <f t="shared" si="10"/>
         <v>13027.47665123188</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <f t="shared" si="11"/>
         <v>38823.320714223475</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D24">
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E24">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <f t="shared" si="9"/>
         <v>38823.320714223475</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <f t="shared" si="3"/>
         <v>129.41106904741159</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <f t="shared" si="10"/>
         <v>13027.47665123188</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <f t="shared" si="11"/>
         <v>25925.255132039005</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D25">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E25">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <f t="shared" si="9"/>
         <v>25925.255132039005</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <f t="shared" si="3"/>
         <v>86.417517106796694</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <f t="shared" si="10"/>
         <v>13027.47665123188</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <f t="shared" si="11"/>
         <v>12984.195997913923</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D26">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E26">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <f t="shared" si="9"/>
         <v>12984.195997913923</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <f t="shared" si="3"/>
         <v>43.280653326379749</v>
       </c>
-      <c r="G26" s="1">
-        <f>$B$9</f>
-        <v>13027.47665123188</v>
-      </c>
       <c r="H26" s="1">
+        <f>$C$9</f>
+        <v>13027.47665123188</v>
+      </c>
+      <c r="I26" s="1">
         <f t="shared" si="11"/>
         <v>8.4219209384173155E-9</v>
       </c>
